--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/企业单位数.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/企业单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1109</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1286</v>
-      </c>
-      <c r="D2" t="n">
-        <v>321</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>189</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1764</v>
-      </c>
-      <c r="H2" t="n">
-        <v>240</v>
-      </c>
-      <c r="I2" t="n">
-        <v>712</v>
-      </c>
-      <c r="J2" t="n">
-        <v>379</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615</v>
-      </c>
-      <c r="L2" t="n">
-        <v>21724</v>
-      </c>
-      <c r="M2" t="n">
-        <v>73</v>
-      </c>
-      <c r="N2" t="n">
-        <v>112</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1470</v>
-      </c>
-      <c r="P2" t="n">
-        <v>370</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>170</v>
-      </c>
-      <c r="R2" t="n">
-        <v>392</v>
-      </c>
-      <c r="S2" t="n">
-        <v>162</v>
-      </c>
-      <c r="T2" t="n">
-        <v>99</v>
-      </c>
-      <c r="U2" t="n">
-        <v>260</v>
-      </c>
-      <c r="V2" t="n">
-        <v>140</v>
-      </c>
-      <c r="W2" t="n">
-        <v>97</v>
-      </c>
-      <c r="X2" t="n">
-        <v>283</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1059</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>856</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1129</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>216</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>119</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>39</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1889</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>221</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>575</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>616</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1654</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>178</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>534</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1108</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>757</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>369</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1093</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1370</v>
-      </c>
-      <c r="D3" t="n">
-        <v>362</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>210</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1831</v>
-      </c>
-      <c r="H3" t="n">
-        <v>237</v>
-      </c>
-      <c r="I3" t="n">
-        <v>833</v>
-      </c>
-      <c r="J3" t="n">
-        <v>439</v>
-      </c>
-      <c r="K3" t="n">
-        <v>658</v>
-      </c>
-      <c r="L3" t="n">
-        <v>22987</v>
-      </c>
-      <c r="M3" t="n">
-        <v>86</v>
-      </c>
-      <c r="N3" t="n">
-        <v>136</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1472</v>
-      </c>
-      <c r="P3" t="n">
-        <v>398</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>164</v>
-      </c>
-      <c r="R3" t="n">
-        <v>460</v>
-      </c>
-      <c r="S3" t="n">
-        <v>169</v>
-      </c>
-      <c r="T3" t="n">
-        <v>94</v>
-      </c>
-      <c r="U3" t="n">
-        <v>264</v>
-      </c>
-      <c r="V3" t="n">
-        <v>143</v>
-      </c>
-      <c r="W3" t="n">
-        <v>102</v>
-      </c>
-      <c r="X3" t="n">
-        <v>276</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1124</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1114</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1213</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>226</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>133</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>39</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1851</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>229</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>630</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>684</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1772</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>175</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>560</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1136</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>770</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>383</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1073</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>376</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>222</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1828</v>
-      </c>
-      <c r="H4" t="n">
-        <v>225</v>
-      </c>
-      <c r="I4" t="n">
-        <v>888</v>
-      </c>
-      <c r="J4" t="n">
-        <v>449</v>
-      </c>
-      <c r="K4" t="n">
-        <v>763</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23323</v>
-      </c>
-      <c r="M4" t="n">
-        <v>88</v>
-      </c>
-      <c r="N4" t="n">
-        <v>157</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1510</v>
-      </c>
-      <c r="P4" t="n">
-        <v>395</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>151</v>
-      </c>
-      <c r="R4" t="n">
-        <v>458</v>
-      </c>
-      <c r="S4" t="n">
-        <v>184</v>
-      </c>
-      <c r="T4" t="n">
-        <v>93</v>
-      </c>
-      <c r="U4" t="n">
-        <v>245</v>
-      </c>
-      <c r="V4" t="n">
-        <v>138</v>
-      </c>
-      <c r="W4" t="n">
-        <v>104</v>
-      </c>
-      <c r="X4" t="n">
-        <v>269</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1168</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1233</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1223</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>231</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>142</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1778</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>235</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>612</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>750</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1772</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>166</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>596</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1100</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>759</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>371</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
